--- a/testfiles/ExpectedResultsTable.xlsx
+++ b/testfiles/ExpectedResultsTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team1\ARM-Lab_Spring2019_S1_P1_Team1\testfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51D99FB-51F9-42BD-9C3B-BD815336D395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB545DD-DACC-4D9B-BD20-351D3300CDF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9450" yWindow="4860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="66">
   <si>
     <t>Instruction 1</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>ADD Rd, Rn, Rm</t>
+  </si>
+  <si>
+    <t>branch_target</t>
+  </si>
+  <si>
+    <t>alu_result</t>
+  </si>
+  <si>
+    <t>zero</t>
   </si>
 </sst>
 </file>
@@ -292,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -305,6 +314,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +600,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,6 +1205,111 @@
         <v>61</v>
       </c>
     </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="10">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10">
+        <v>12</v>
+      </c>
+      <c r="E18" s="10">
+        <v>16</v>
+      </c>
+      <c r="F18" s="10">
+        <v>20</v>
+      </c>
+      <c r="G18" s="10">
+        <v>24</v>
+      </c>
+      <c r="H18" s="10">
+        <v>28</v>
+      </c>
+      <c r="I18" s="10">
+        <v>32</v>
+      </c>
+      <c r="J18" s="10">
+        <v>36</v>
+      </c>
+      <c r="K18" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>60</v>
@@ -1207,7 +1324,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H4:I4 E9 B6:K8 B10:K14 B9:D9 F9:K9 B5:G5 H5 J5:K5 B16 B17 B15 E16:I16 E15:I15 H17:I17 C17 C16:D16 D17:G17 J17:K17 C15:D15 J15:K15 J16:K16" numberStoredAsText="1"/>
+    <ignoredError sqref="H4:I4 E9 B6:K8 B10:K14 B9:D9 F9:K9 C5:G5 H5 J5:K5 B16 B17 B15 E16:I16 E15:I15 H17:I17 C17 C16:D16 D17:G17 J17:K17 C15:D15 J15:K15 J16:K16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testfiles/ExpectedResultsTable.xlsx
+++ b/testfiles/ExpectedResultsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB545DD-DACC-4D9B-BD20-351D3300CDF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D497B3-D26D-4D81-927C-9D21A4DD0427}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9450" yWindow="4860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="68">
   <si>
     <t>Instruction 1</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>zero</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
 </sst>
 </file>
@@ -600,14 +606,15 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1245,16 +1252,16 @@
         <v>64</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>37</v>
@@ -1269,10 +1276,10 @@
         <v>54</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1280,34 +1287,34 @@
         <v>65</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1324,7 +1331,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H4:I4 E9 B6:K8 B10:K14 B9:D9 F9:K9 C5:G5 H5 J5:K5 B16 B17 B15 E16:I16 E15:I15 H17:I17 C17 C16:D16 D17:G17 J17:K17 C15:D15 J15:K15 J16:K16" numberStoredAsText="1"/>
+    <ignoredError sqref="I4 E9 B6:K8 B10:K14 B9:D9 F9:K9 D5 K5 B17 B15 E16:I16 E15:I15 H17:I17 C17 C16:D16 D17:G17 J17:K17 C15:D15 J15:K15 J16:K16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testfiles/ExpectedResultsTable.xlsx
+++ b/testfiles/ExpectedResultsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D497B3-D26D-4D81-927C-9D21A4DD0427}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E986D-BA0F-4EC6-9B8F-96209D27E814}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="68">
   <si>
     <t>Instruction 1</t>
   </si>
@@ -606,7 +606,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,35 +1216,35 @@
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="10">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10">
-        <v>8</v>
-      </c>
-      <c r="D18" s="10">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10">
-        <v>16</v>
+      <c r="B18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F18" s="10">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="G18" s="10">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H18" s="10">
         <v>28</v>
       </c>
       <c r="I18" s="10">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="J18" s="10">
-        <v>36</v>
-      </c>
-      <c r="K18" s="10">
-        <v>40</v>
+        <v>-220</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">

--- a/testfiles/ExpectedResultsTable.xlsx
+++ b/testfiles/ExpectedResultsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E986D-BA0F-4EC6-9B8F-96209D27E814}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0767D7A5-CCF4-4098-BC96-51C2EFD34D28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
   <si>
     <t>Instruction 1</t>
   </si>
@@ -606,7 +606,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,10 +955,10 @@
         <v>36</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
@@ -1219,32 +1219,32 @@
       <c r="B18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>54</v>
+      <c r="C18" s="10">
+        <v>4</v>
+      </c>
+      <c r="D18" s="10">
+        <v>8</v>
+      </c>
+      <c r="E18" s="10">
+        <v>396</v>
       </c>
       <c r="F18" s="10">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="G18" s="10">
         <v>52</v>
       </c>
       <c r="H18" s="10">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="I18" s="10">
-        <v>256</v>
+        <v>-192</v>
       </c>
       <c r="J18" s="10">
-        <v>-220</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="K18" s="10">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I4 E9 B6:K8 B10:K14 B9:D9 F9:K9 D5 K5 B17 B15 E16:I16 E15:I15 H17:I17 C17 C16:D16 D17:G17 J17:K17 C15:D15 J15:K15 J16:K16" numberStoredAsText="1"/>
+    <ignoredError sqref="E9 B6:K8 B11:K14 B9:D9 F9:K9 K5 B16:B17 B15 E16:I16 E15:I15 H17:I17 C17 C16:D16 D17:G17 J17:K17 C15:D15 J15:K15 J16:K16 B10:I10 J10:K10 B19:K20 D5 I4 B5:C5 B4:H4 J4 E5:J5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testfiles/ExpectedResultsTable.xlsx
+++ b/testfiles/ExpectedResultsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0767D7A5-CCF4-4098-BC96-51C2EFD34D28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE31C76-C91F-4DF2-8381-37B9C868830A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="69">
   <si>
     <t>Instruction 1</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>112</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1191,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>37</v>
@@ -1331,7 +1334,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E9 B6:K8 B11:K14 B9:D9 F9:K9 K5 B16:B17 B15 E16:I16 E15:I15 H17:I17 C17 C16:D16 D17:G17 J17:K17 C15:D15 J15:K15 J16:K16 B10:I10 J10:K10 B19:K20 D5 I4 B5:C5 B4:H4 J4 E5:J5" numberStoredAsText="1"/>
+    <ignoredError sqref="E9 B6:K8 B11:K14 B9:D9 F9:K9 K5 B16:B17 B15 E16:I16 E15:I15 H17:I17 C17 C16:D16 E17:G17 J17:K17 C15:D15 J15:K15 J16:K16 B10:I10 J10:K10 B19:K20 D5 I4 B5:C5 B4:H4 J4 E5:J5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testfiles/ExpectedResultsTable.xlsx
+++ b/testfiles/ExpectedResultsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE31C76-C91F-4DF2-8381-37B9C868830A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C5ED5E-822D-46D5-ABBD-BAE05C15D53A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10260" yWindow="9045" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="68">
   <si>
     <t>Instruction 1</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>112</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -609,7 +606,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,8 +1187,8 @@
       <c r="C17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>68</v>
+      <c r="D17" s="10">
+        <v>30</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>37</v>

--- a/testfiles/ExpectedResultsTable.xlsx
+++ b/testfiles/ExpectedResultsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C5ED5E-822D-46D5-ABBD-BAE05C15D53A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7E58C-E322-4A1B-A724-062740B2B51F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10260" yWindow="9045" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="69">
   <si>
     <t>Instruction 1</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>112</t>
+  </si>
+  <si>
+    <t>PC actual</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B21" sqref="B21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,26 +1222,26 @@
       <c r="B18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="10">
-        <v>4</v>
-      </c>
-      <c r="D18" s="10">
-        <v>8</v>
-      </c>
-      <c r="E18" s="10">
-        <v>396</v>
+      <c r="C18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F18" s="10">
-        <v>-4</v>
+        <v>60</v>
       </c>
       <c r="G18" s="10">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="H18" s="10">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="I18" s="10">
-        <v>-192</v>
+        <v>-128</v>
       </c>
       <c r="J18" s="10">
         <v>32</v>
@@ -1315,6 +1318,41 @@
       </c>
       <c r="K20" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10">
+        <v>60</v>
+      </c>
+      <c r="F21" s="10">
+        <v>80</v>
+      </c>
+      <c r="G21" s="10">
+        <v>84</v>
+      </c>
+      <c r="H21" s="10">
+        <v>88</v>
+      </c>
+      <c r="I21" s="10">
+        <v>92</v>
+      </c>
+      <c r="J21" s="10">
+        <v>96</v>
+      </c>
+      <c r="K21" s="10">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
